--- a/Data/LCCurrentAccountInputter.xlsx
+++ b/Data/LCCurrentAccountInputter.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti6\IdeaProjects\Retail Ops\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Transaction Number</t>
-  </si>
-  <si>
-    <t>1007414740</t>
   </si>
 </sst>
 </file>
@@ -343,27 +340,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
